--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Aubert_(entomologiste)/Jacques_Aubert_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Aubert_(entomologiste)/Jacques_Aubert_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Aubert, né à Lausanne le 17 août 1916 et mort à Lutry le 4 ou le 14 août 1995, est un enseignant, entomologiste et directeur de musée vaudois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Aubert suit des études scientifiques à l'Université de Lausanne qui le mènent à la licence en 1941. Il consacre sa thèse de doctorat soutenue en 1946 aux plécoptères de Suisse romande. De 1967 à 1981, Jacques Aubert enseigne l'entomologie et la zoogéographie à l'Université de Lausanne.
 Entré en 1946 au musée cantonal de zoologie de Lausanne comme préparateur, Jacques Aubert est par la suite nommé conservateur et, en 1967, il succède à Jacques de Beaumont à la direction de l'institution. Le musée profitera des connaissances encyclopédiques de l'entomologiste pour développer ses collections.
